--- a/report/162-188/0172三元宫水厂管网水.xlsx
+++ b/report/162-188/0172三元宫水厂管网水.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="934" activeTab="4"/>
+    <workbookView windowWidth="12330" windowHeight="8070" tabRatio="934" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="77" r:id="rId1"/>
@@ -20,14 +20,33 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4'!$A$1:$G$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5'!$A$1:$A$24</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="193">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="189">
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> ( 10 )</t>
     </r>
     <r>
@@ -344,48 +363,54 @@
   </si>
   <si>
     <r>
-      <t>2026</t>
-    </r>
-    <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2026</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -394,6 +419,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>国家城市供水水质监测网重庆监测站</t>
     </r>
     <r>
@@ -2141,6 +2172,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>GB/T 5750.8-2023</t>
     </r>
     <r>
@@ -2177,7 +2213,7 @@
   </si>
   <si>
     <r>
-      <t>GB/T 5750.8-2024</t>
+      <t>GB/T 5750.8-2023</t>
     </r>
     <r>
       <rPr>
@@ -2209,103 +2245,13 @@
     <t>二氯一溴甲烷</t>
   </si>
   <si>
-    <r>
-      <t>GB/T 5750.8-2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中附录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹扫捕集气相色谱质谱法</t>
-    </r>
-  </si>
-  <si>
     <t>一氯二溴甲烷</t>
   </si>
   <si>
-    <r>
-      <t>GB/T 5750.8-2026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中附录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹扫捕集气相色谱质谱法</t>
-    </r>
-  </si>
-  <si>
     <t>三溴甲烷</t>
   </si>
   <si>
     <t>&lt;0.0012</t>
-  </si>
-  <si>
-    <r>
-      <t>GB/T 5750.8-2027</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中附录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹扫捕集气相色谱质谱法</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2334,36 +2280,6 @@
         <charset val="134"/>
       </rPr>
       <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GB/T 5750.8-2028</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中附录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吹扫捕集气相色谱质谱法</t>
     </r>
   </si>
   <si>
@@ -2988,19 +2904,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="11">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -3164,28 +3080,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3194,26 +3088,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3226,7 +3120,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3250,36 +3160,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3294,28 +3190,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -3332,9 +3242,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="9"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3343,8 +3265,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -3355,15 +3277,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3373,42 +3289,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3424,13 +3304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3442,7 +3328,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3454,25 +3394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,25 +3406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3514,31 +3430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3551,6 +3449,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3739,11 +3655,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3757,17 +3679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3788,21 +3704,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3817,6 +3718,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3827,198 +3752,189 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4271,7 +4187,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4391,10 +4307,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="5" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4406,7 +4322,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="100" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="100" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4415,25 +4331,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="5" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="5" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="11" fillId="0" borderId="5" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="100" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4442,13 +4358,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="116" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4469,7 +4385,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4481,10 +4397,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="116" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="116" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="83" applyFont="1" applyAlignment="1">
@@ -4521,7 +4437,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="180" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="180" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="180" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="180" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4530,19 +4446,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="212" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="99" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4701,7 +4617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="212" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="212" applyFont="1">
@@ -4734,80 +4650,80 @@
   </cellXfs>
   <cellStyles count="234">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11 2 3 5" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
-    <cellStyle name="输入" xfId="6" builtinId="20"/>
-    <cellStyle name="常规 13 2" xfId="7"/>
-    <cellStyle name="常规 11 2 3 7" xfId="8"/>
-    <cellStyle name="常规 11 2 2" xfId="9"/>
-    <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11" builtinId="39"/>
-    <cellStyle name="差" xfId="12" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="13" builtinId="3"/>
-    <cellStyle name="常规 11 4 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8"/>
-    <cellStyle name="常规 11 3 3" xfId="17"/>
-    <cellStyle name="百分比" xfId="18" builtinId="5"/>
-    <cellStyle name="常规 2 7 3" xfId="19"/>
-    <cellStyle name="常规 11 2 3" xfId="20"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9"/>
-    <cellStyle name="注释" xfId="22" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="25" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="26" builtinId="11"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="28"/>
-    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
-    <cellStyle name="常规 13 2 3 2" xfId="30"/>
-    <cellStyle name="标题 1" xfId="31" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="33"/>
-    <cellStyle name="标题 3" xfId="34" builtinId="18"/>
-    <cellStyle name="常规 5 2 3" xfId="35"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="36" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="37" builtinId="44"/>
-    <cellStyle name="输出" xfId="38" builtinId="21"/>
-    <cellStyle name="计算" xfId="39" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="40" builtinId="23"/>
-    <cellStyle name="常规 2 4 2 3 2 2 2 2 2" xfId="41"/>
-    <cellStyle name="常规 2 4 7 2 2 2" xfId="42"/>
-    <cellStyle name="强调文字颜色 2" xfId="43" builtinId="33"/>
-    <cellStyle name="常规 2 2 2 5" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="45" builtinId="50"/>
-    <cellStyle name="常规 6 2 3" xfId="46"/>
-    <cellStyle name="链接单元格" xfId="47" builtinId="24"/>
-    <cellStyle name="汇总" xfId="48" builtinId="25"/>
-    <cellStyle name="好" xfId="49" builtinId="26"/>
-    <cellStyle name="适中" xfId="50" builtinId="28"/>
-    <cellStyle name="常规 2 4 2 5 3 2" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="52" builtinId="46"/>
-    <cellStyle name="常规 2 2 2 4" xfId="53"/>
-    <cellStyle name="强调文字颜色 1" xfId="54" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="55" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="56" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="57" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="58" builtinId="35"/>
-    <cellStyle name="常规 2 2 2 6" xfId="59"/>
-    <cellStyle name="强调文字颜色 3" xfId="60" builtinId="37"/>
-    <cellStyle name="常规 2 2 2 7" xfId="61"/>
-    <cellStyle name="强调文字颜色 4" xfId="62" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="63" builtinId="42"/>
-    <cellStyle name="常规 2 4 2 3 2 2 2 2" xfId="64"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="65" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="66" builtinId="45"/>
-    <cellStyle name="常规 2 5 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="68" builtinId="47"/>
-    <cellStyle name="常规 13 2 2 2" xfId="69"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="70" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="71" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="72" builtinId="51"/>
-    <cellStyle name="常规 2 4 5 2 2" xfId="73"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="74" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 11 2 3 5" xfId="49"/>
+    <cellStyle name="常规 2 2 4" xfId="50"/>
+    <cellStyle name="常规 13 2" xfId="51"/>
+    <cellStyle name="常规 11 2 3 7" xfId="52"/>
+    <cellStyle name="常规 11 2 2" xfId="53"/>
+    <cellStyle name="常规 11 4 2" xfId="54"/>
+    <cellStyle name="常规 11 3 3" xfId="55"/>
+    <cellStyle name="常规 2 7 3" xfId="56"/>
+    <cellStyle name="常规 11 2 3" xfId="57"/>
+    <cellStyle name="常规 6" xfId="58"/>
+    <cellStyle name="常规 5 2" xfId="59"/>
+    <cellStyle name="常规 13 2 3 2" xfId="60"/>
+    <cellStyle name="常规 5 2 2" xfId="61"/>
+    <cellStyle name="常规 5 2 3" xfId="62"/>
+    <cellStyle name="常规 2 4 2 3 2 2 2 2 2" xfId="63"/>
+    <cellStyle name="常规 2 4 7 2 2 2" xfId="64"/>
+    <cellStyle name="常规 2 2 2 5" xfId="65"/>
+    <cellStyle name="常规 6 2 3" xfId="66"/>
+    <cellStyle name="常规 2 4 2 5 3 2" xfId="67"/>
+    <cellStyle name="常规 2 2 2 4" xfId="68"/>
+    <cellStyle name="常规 2 2 2 6" xfId="69"/>
+    <cellStyle name="常规 2 2 2 7" xfId="70"/>
+    <cellStyle name="常规 2 4 2 3 2 2 2 2" xfId="71"/>
+    <cellStyle name="常规 2 5 3 2" xfId="72"/>
+    <cellStyle name="常规 13 2 2 2" xfId="73"/>
+    <cellStyle name="常规 2 4 5 2 2" xfId="74"/>
     <cellStyle name="常规 11 2 2 2" xfId="75"/>
     <cellStyle name="常规 11" xfId="76"/>
     <cellStyle name="常规 5 3 8" xfId="77"/>
@@ -5276,20 +5192,20 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="2:3">
+    <row r="1" ht="30" customHeight="1" spans="1:5">
       <c r="B1" s="143" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="143"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:3">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" s="144"/>
       <c r="B2" s="145" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="145"/>
     </row>
-    <row r="3" ht="95.1" customHeight="1" spans="2:3">
+    <row r="3" ht="95.1" customHeight="1" spans="1:5">
       <c r="B3" s="109"/>
       <c r="C3" s="109"/>
     </row>
@@ -5303,25 +5219,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="69.95" customHeight="1" spans="1:3">
+    <row r="5" ht="69.95" customHeight="1" spans="1:5">
       <c r="A5" s="146" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="146"/>
       <c r="C5" s="146"/>
     </row>
-    <row r="6" ht="69.95" customHeight="1" spans="1:3">
+    <row r="6" ht="69.95" customHeight="1" spans="1:5">
       <c r="A6" s="146" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="146"/>
       <c r="C6" s="146"/>
     </row>
-    <row r="7" ht="78.75" customHeight="1" spans="2:3">
+    <row r="7" ht="78.75" customHeight="1" spans="1:5">
       <c r="B7" s="146"/>
       <c r="C7" s="146"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="2:3">
+    <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="B8" s="147" t="s">
         <v>6</v>
       </c>
@@ -5329,7 +5245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="2:3">
+    <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="B9" s="147" t="s">
         <v>8</v>
       </c>
@@ -5337,7 +5253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="2:3">
+    <row r="10" ht="30" customHeight="1" spans="1:5">
       <c r="B10" s="150" t="s">
         <v>10</v>
       </c>
@@ -5345,7 +5261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="2:3">
+    <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="B11" s="150" t="s">
         <v>12</v>
       </c>
@@ -5388,7 +5304,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50.1" customHeight="1" spans="1:5">
+    <row r="1" ht="50.1" customHeight="1" spans="1:8">
       <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
@@ -5399,7 +5315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="1:5">
+    <row r="2" ht="39" customHeight="1" spans="1:8">
       <c r="A2" s="103" t="s">
         <v>16</v>
       </c>
@@ -5785,7 +5701,7 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -5856,7 +5772,7 @@
       </c>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="2:7">
+    <row r="5" ht="18.75" customHeight="1" spans="1:7">
       <c r="B5" s="74"/>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
@@ -6358,7 +6274,7 @@
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="7:7">
+    <row r="30" spans="1:7">
       <c r="G30" s="100"/>
     </row>
     <row r="31" ht="15" spans="1:7">
@@ -6418,8 +6334,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6489,7 +6405,7 @@
       </c>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="2:7">
+    <row r="5" ht="18.75" customHeight="1" spans="1:7">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -6861,7 +6777,7 @@
         <v>0.06</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="62"/>
     </row>
@@ -6870,7 +6786,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>61</v>
@@ -6882,7 +6798,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G24" s="62"/>
     </row>
@@ -6891,19 +6807,19 @@
         <v>40</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E25" s="60">
         <v>0.1</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G25" s="62"/>
     </row>
@@ -6912,7 +6828,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>44</v>
@@ -6921,10 +6837,10 @@
         <v>0.15</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G26" s="62"/>
     </row>
@@ -6933,19 +6849,19 @@
         <v>42</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D27" s="65">
         <v>0.025</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G27" s="66"/>
     </row>
@@ -6954,25 +6870,25 @@
         <v>43</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D28" s="65">
         <v>0.031</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F28" s="66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G28" s="66"/>
     </row>
     <row r="29" ht="24" customHeight="1" spans="1:7">
       <c r="A29" s="67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B29" s="67"/>
       <c r="C29" s="68"/>
@@ -6981,7 +6897,7 @@
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:4">
+    <row r="31" ht="15" customHeight="1" spans="1:7">
       <c r="A31" s="71" t="s">
         <v>121</v>
       </c>
@@ -7037,7 +6953,7 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -7048,91 +6964,91 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:1">
+    <row r="1" ht="30" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="str">
         <f>'3'!A1</f>
         <v>国家城市供水水质监测网重庆监测站 ( 10)字( 2026)第( 0172 )号</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:1">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" ht="55.5" customHeight="1" spans="1:1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" ht="55.5" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" ht="39.95" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="39.95" customHeight="1" spans="1:1">
+    <row r="5" ht="39.95" customHeight="1" spans="1:5">
       <c r="A5" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" ht="39.95" customHeight="1" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="10" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:1">
-      <c r="A7" s="8" t="s">
+    <row r="11" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:1">
-      <c r="A8" s="9" t="s">
+    <row r="12" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A12" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" ht="39.95" customHeight="1" spans="1:1">
-      <c r="A9" s="8" t="s">
+    <row r="13" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A14" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:1">
-      <c r="A10" s="10" t="s">
+    <row r="15" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A15" s="13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" ht="39.95" customHeight="1" spans="1:1">
-      <c r="A11" s="10" t="s">
+    <row r="16" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A16" s="13" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="12" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A12" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A14" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A15" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" ht="24.95" customHeight="1" spans="1:1">
-      <c r="A16" s="13" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" ht="24.95" customHeight="1" spans="1:1">
       <c r="A17" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="24.95" customHeight="1"/>
